--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3669327.783117496</v>
+        <v>3666783.973610413</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>136.6253230858997</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.63544656439291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>22.2592020123518</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>55.77445584783052</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>79.63579206135154</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.91567440413834</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>225.1346772411287</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>72.36698404190682</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>38.08911925464493</v>
       </c>
       <c r="F6" t="n">
-        <v>36.09189726287551</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7.800702276135602</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>220.474761706665</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>101.4926604386252</v>
       </c>
       <c r="H8" t="n">
-        <v>87.9961216138506</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348409</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614512</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115259</v>
+        <v>18.47335059662137</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256294</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>119.6981910140041</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.2982904715969</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1579,16 +1579,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>211.147499124903</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>29.249233057517</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>133.3722917337063</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>28.75188085812055</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>93.40444476188321</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2801,13 +2801,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>9.146142788179874</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,13 +3038,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3275,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>130.4114987159134</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3503,10 +3503,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.7979242836798</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="C2" t="n">
-        <v>294.4202677165019</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="D2" t="n">
-        <v>294.4202677165019</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="E2" t="n">
-        <v>294.4202677165019</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946889</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946889</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946889</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="X2" t="n">
-        <v>634.167062227511</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.7979242836798</v>
+        <v>294.4202677165021</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.2061662380651</v>
+        <v>218.0341821179665</v>
       </c>
       <c r="C3" t="n">
-        <v>429.7531369569381</v>
+        <v>43.58115283683949</v>
       </c>
       <c r="D3" t="n">
-        <v>280.8187272956868</v>
+        <v>43.58115283683949</v>
       </c>
       <c r="E3" t="n">
-        <v>121.5812722902313</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5812722902313</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902313</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>121.6535314649673</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>268.397955125264</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>980.1818020230869</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="T3" t="n">
-        <v>980.1818020230869</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="U3" t="n">
-        <v>980.1818020230869</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="V3" t="n">
-        <v>980.1818020230869</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="W3" t="n">
-        <v>980.1818020230869</v>
+        <v>633.6459810884533</v>
       </c>
       <c r="X3" t="n">
-        <v>980.1818020230869</v>
+        <v>425.7944808829204</v>
       </c>
       <c r="Y3" t="n">
-        <v>772.421503258133</v>
+        <v>218.0341821179665</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>873.2070551757848</v>
+        <v>101.5373044014857</v>
       </c>
       <c r="C4" t="n">
-        <v>704.2708722478779</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>554.1542328355422</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>406.2411392531491</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>259.3511917552387</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>90.78183111024214</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>90.78183111024214</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4498,10 +4498,10 @@
         <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165363</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745506</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745506</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>367.9149609686638</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006025</v>
+        <v>101.5373044014857</v>
       </c>
       <c r="X4" t="n">
-        <v>1054.855520006025</v>
+        <v>101.5373044014857</v>
       </c>
       <c r="Y4" t="n">
-        <v>1054.855520006025</v>
+        <v>101.5373044014857</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>268.4151888127975</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="C5" t="n">
-        <v>268.4151888127975</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="D5" t="n">
-        <v>268.4151888127975</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G5" t="n">
         <v>21.0971104001205</v>
@@ -4565,19 +4565,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358416</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="U5" t="n">
-        <v>801.1705019471535</v>
+        <v>646.8597007358183</v>
       </c>
       <c r="V5" t="n">
-        <v>534.7928453799755</v>
+        <v>646.8597007358183</v>
       </c>
       <c r="W5" t="n">
-        <v>268.4151888127975</v>
+        <v>646.8597007358183</v>
       </c>
       <c r="X5" t="n">
-        <v>268.4151888127975</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="Y5" t="n">
-        <v>268.4151888127975</v>
+        <v>573.7617370571245</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>216.7910272872684</v>
+        <v>59.57096823309519</v>
       </c>
       <c r="C6" t="n">
-        <v>216.7910272872684</v>
+        <v>59.57096823309519</v>
       </c>
       <c r="D6" t="n">
-        <v>216.7910272872684</v>
+        <v>59.57096823309519</v>
       </c>
       <c r="E6" t="n">
-        <v>57.55357228181293</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
         <v>21.0971104001205</v>
@@ -4647,49 +4647,49 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>691.0742594480924</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>462.9384134849059</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>227.7863052531632</v>
       </c>
       <c r="W6" t="n">
-        <v>800.6181632778232</v>
+        <v>227.7863052531632</v>
       </c>
       <c r="X6" t="n">
-        <v>592.7666630722904</v>
+        <v>227.7863052531632</v>
       </c>
       <c r="Y6" t="n">
-        <v>385.0063643073365</v>
+        <v>227.7863052531632</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>327.0063406434712</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C7" t="n">
-        <v>327.0063406434712</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D7" t="n">
-        <v>176.8897012311354</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E7" t="n">
-        <v>28.97660764874232</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
-        <v>28.97660764874232</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
         <v>21.0971104001205</v>
@@ -4726,19 +4726,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165361</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="T7" t="n">
-        <v>848.0684854165361</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="U7" t="n">
-        <v>581.690828849358</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="V7" t="n">
-        <v>327.0063406434712</v>
+        <v>464.5914690453325</v>
       </c>
       <c r="W7" t="n">
-        <v>327.0063406434712</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>327.0063406434712</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>327.0063406434712</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1675.76441743692</v>
+        <v>981.8557524576197</v>
       </c>
       <c r="C8" t="n">
-        <v>1306.801900496508</v>
+        <v>612.893235517208</v>
       </c>
       <c r="D8" t="n">
-        <v>948.5362018897579</v>
+        <v>612.893235517208</v>
       </c>
       <c r="E8" t="n">
-        <v>562.7479492915136</v>
+        <v>227.1049829189638</v>
       </c>
       <c r="F8" t="n">
-        <v>151.762044501906</v>
+        <v>220.1594821697603</v>
       </c>
       <c r="G8" t="n">
-        <v>140.0962265339772</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685538</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685538</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467158</v>
+        <v>187.3702251467171</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607394</v>
+        <v>442.1757437607419</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045876</v>
+        <v>795.1862829045924</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995219</v>
+        <v>1219.647962995226</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209575</v>
+        <v>1655.591685209584</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940585</v>
+        <v>2053.905718940595</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550186</v>
+        <v>2359.356530550197</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.56462266115</v>
+        <v>2540.564622661163</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342769</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762122</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762122</v>
+        <v>2351.810676439055</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762122</v>
+        <v>2098.229497964625</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.830015762122</v>
+        <v>2098.229497964625</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.830015762122</v>
+        <v>1745.460842694511</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.364257501042</v>
+        <v>1371.995084433431</v>
       </c>
       <c r="Y8" t="n">
-        <v>2062.364257501042</v>
+        <v>981.8557524576197</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010773</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199503</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.122281858699</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532435</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801285</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763167</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999388</v>
+        <v>69.87120530445299</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685538</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507227</v>
+        <v>113.4887579637187</v>
       </c>
       <c r="K9" t="n">
-        <v>422.915879301821</v>
+        <v>298.0857543148179</v>
       </c>
       <c r="L9" t="n">
-        <v>717.451862735301</v>
+        <v>931.8250374996566</v>
       </c>
       <c r="M9" t="n">
-        <v>1080.518331209601</v>
+        <v>1294.891505973958</v>
       </c>
       <c r="N9" t="n">
-        <v>1714.257614394436</v>
+        <v>1842.133061471867</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459244</v>
+        <v>2174.019871459256</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888867</v>
+        <v>2421.05522988888</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442612</v>
+        <v>2536.272628442625</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342769</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251698</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685347</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751576</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519834</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791632</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586099</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821145</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.1185188573645</v>
+        <v>388.1345629950719</v>
       </c>
       <c r="C10" t="n">
-        <v>51.21125520685538</v>
+        <v>219.1983800671649</v>
       </c>
       <c r="D10" t="n">
-        <v>51.21125520685538</v>
+        <v>219.1983800671649</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685538</v>
+        <v>219.1983800671649</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685538</v>
+        <v>219.1983800671649</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685538</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685538</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685538</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380084</v>
+        <v>76.63468308380143</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676556</v>
+        <v>248.2500215676567</v>
       </c>
       <c r="L10" t="n">
-        <v>523.38500433689</v>
+        <v>523.3850043368918</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904007</v>
+        <v>823.8653899904033</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101609</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931086</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616495</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477357</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477357</v>
+        <v>1533.156055412619</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477357</v>
+        <v>1349.016368067572</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477357</v>
+        <v>1126.035066541977</v>
       </c>
       <c r="U10" t="n">
-        <v>1346.650771971999</v>
+        <v>836.9166930366193</v>
       </c>
       <c r="V10" t="n">
-        <v>1091.966283766112</v>
+        <v>836.9166930366193</v>
       </c>
       <c r="W10" t="n">
-        <v>802.5491137291517</v>
+        <v>836.9166930366193</v>
       </c>
       <c r="X10" t="n">
-        <v>574.5595628311344</v>
+        <v>608.927142138602</v>
       </c>
       <c r="Y10" t="n">
-        <v>353.7669836876042</v>
+        <v>388.1345629950719</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5039,10 +5039,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5130,10 +5130,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5261,13 +5261,13 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5279,16 +5279,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>376.4492432300683</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>228.5361496476752</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>228.5361496476752</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5501,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,16 +5653,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,16 +5829,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273903</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5984,19 +5984,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400717</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,64 +6212,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597624</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597624</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597624</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,25 +6449,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6476,31 +6476,31 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597624</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,7 +6710,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6725,10 +6725,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,22 +6780,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622266</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343197</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219839</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395908</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>449.3439841395908</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7403,58 +7403,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
@@ -7640,58 +7640,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>26.13373767211372</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915893</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127223</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8149,7 +8149,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658826</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8295,7 +8295,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084419</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538057</v>
+        <v>161.7749020457977</v>
       </c>
       <c r="O9" t="n">
-        <v>129.1671182600206</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>75.37549921168798</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>32.15184655856257</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>117.6820817884486</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>72.11969353038563</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>137.2878198583893</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>35.11263957635549</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>673683.8018159571</v>
+        <v>673683.8018159572</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>779989.6813710694</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055057</v>
-      </c>
       <c r="J2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055055</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055063</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580754</v>
+        <v>390680.0076580786</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606966</v>
+        <v>507909.2320606934</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911406</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101665</v>
+        <v>95270.23779101757</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.97569547</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.4547662848</v>
+        <v>136854.4547662839</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
         <v>9337.200356756592</v>
@@ -26433,31 +26433,31 @@
         <v>9337.200356756613</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756606</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756515</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756508</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756599</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756568</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756548</v>
+        <v>9337.200356756624</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756552</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756533</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567868</v>
+        <v>92902.86757567895</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-211689.3691109366</v>
+        <v>-211689.3691109367</v>
       </c>
       <c r="C6" t="n">
-        <v>468398.6114802564</v>
+        <v>468398.6114802565</v>
       </c>
       <c r="D6" t="n">
-        <v>159552.3513710306</v>
+        <v>159552.3513710274</v>
       </c>
       <c r="E6" t="n">
-        <v>148420.3074641454</v>
+        <v>148385.569538713</v>
       </c>
       <c r="F6" t="n">
-        <v>656329.5395248423</v>
+        <v>656294.8015994065</v>
       </c>
       <c r="G6" t="n">
-        <v>656329.5395248423</v>
+        <v>656294.8015994065</v>
       </c>
       <c r="H6" t="n">
-        <v>656329.5395248423</v>
+        <v>656294.8015994068</v>
       </c>
       <c r="I6" t="n">
-        <v>656329.5395248419</v>
+        <v>656294.8015994066</v>
       </c>
       <c r="J6" t="n">
-        <v>587330.3851057282</v>
+        <v>587295.6471802921</v>
       </c>
       <c r="K6" t="n">
-        <v>656329.5395248423</v>
+        <v>656294.8015994065</v>
       </c>
       <c r="L6" t="n">
-        <v>561059.3017338257</v>
+        <v>561024.5638083891</v>
       </c>
       <c r="M6" t="n">
-        <v>523611.5638293723</v>
+        <v>523576.8259039373</v>
       </c>
       <c r="N6" t="n">
-        <v>656329.5395248425</v>
+        <v>656294.8015994064</v>
       </c>
       <c r="O6" t="n">
-        <v>656329.5395248423</v>
+        <v>656294.8015994064</v>
       </c>
       <c r="P6" t="n">
-        <v>656329.5395248421</v>
+        <v>656294.8015994064</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627801</v>
+        <v>933.7024595627827</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856922</v>
+        <v>640.1406900856956</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,25 +26811,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933017</v>
+        <v>319.6474457933043</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788937</v>
+        <v>434.2730407788911</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.426810084186</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139562</v>
+        <v>532.5675980139528</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841857</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139564</v>
+        <v>532.5675980139528</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084186</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139562</v>
+        <v>532.5675980139528</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>149.1202946442037</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>191.1269353842352</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>313.6024920916607</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.3858784430491</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,7 +27473,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>91.37547956436825</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>87.6110290372763</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>68.23489912067019</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508475</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619743</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>156.795692831133</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>297.3641166365622</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27701,10 +27701,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>119.555961200756</v>
       </c>
       <c r="F6" t="n">
-        <v>108.9773151305084</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>159.082964762411</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.5447505011713</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>66.04823662992595</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>310.0564993496242</v>
       </c>
       <c r="H8" t="n">
-        <v>213.0373526064499</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465079</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646899</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164531023</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164544601</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>47.54863008462378</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640956</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503846</v>
+        <v>12.37555977878759</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28573,13 +28573,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29797,13 +29797,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-2.803991512799309e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29812,10 +29812,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885545</v>
+        <v>3.753577726885556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4413278954666</v>
+        <v>38.44132789546671</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157551</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972523</v>
+        <v>318.5802175972532</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763175</v>
+        <v>477.4691627763189</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354912</v>
+        <v>592.3427171354929</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359919</v>
+        <v>659.0954050359938</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525056</v>
+        <v>669.7602577525074</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307874</v>
+        <v>632.4356192307891</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983004</v>
+        <v>539.769169098302</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542117</v>
+        <v>405.3441667542128</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864743</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140444</v>
+        <v>85.53465245140468</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944148</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508436</v>
+        <v>0.3002862181508444</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436923</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035134</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026249</v>
+        <v>69.14683309026269</v>
       </c>
       <c r="J9" t="n">
-        <v>189.744195107942</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502158</v>
+        <v>324.3030514502167</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571267</v>
+        <v>436.0654741571279</v>
       </c>
       <c r="M9" t="n">
-        <v>508.867840461715</v>
+        <v>508.8678404617165</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152198</v>
+        <v>522.3360580152213</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519069</v>
+        <v>477.8354464519082</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947578</v>
+        <v>383.5050724947588</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463694</v>
+        <v>256.3629847463701</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204785</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366388</v>
+        <v>37.30405581366398</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133911</v>
+        <v>8.095024154133935</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419029</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752554</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254839999</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415864</v>
+        <v>50.63422518415878</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954056</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772512</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490116</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023117</v>
+        <v>263.9316641023124</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462342</v>
+        <v>257.6559590462349</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046247</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708725</v>
+        <v>203.638975770873</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939798</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307391</v>
+        <v>75.70643221307412</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658768</v>
+        <v>29.34274778658776</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942729</v>
+        <v>7.194100917942749</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650305</v>
+        <v>0.09183958618650331</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31850,13 +31850,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>230.9747494877451</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,7 +32093,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M18" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,19 +32549,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>597.1709559744727</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>101.5721424897442</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877686</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34869,7 +34869,7 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958079</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659563</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070566</v>
+        <v>137.534313070567</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731337</v>
+        <v>257.3793117313384</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655039</v>
+        <v>356.5763021655056</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087192</v>
+        <v>428.7491718087211</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559147</v>
+        <v>440.3471941559165</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091007</v>
+        <v>402.3374078091024</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430308</v>
+        <v>308.5361733430324</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797622</v>
+        <v>183.0384768797634</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234221</v>
+        <v>20.20013907234286</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816841</v>
+        <v>62.90656844127582</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758568</v>
+        <v>186.4616124758577</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772526</v>
+        <v>640.1406900856956</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396967</v>
+        <v>366.7338065396982</v>
       </c>
       <c r="N9" t="n">
-        <v>640.1406900856922</v>
+        <v>552.7692479776857</v>
       </c>
       <c r="O9" t="n">
-        <v>464.406320267483</v>
+        <v>335.2392020074638</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804275</v>
+        <v>249.5306650804286</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603478</v>
+        <v>116.3812106603486</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783535</v>
+        <v>24.53548676783571</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873278</v>
+        <v>25.68023017873313</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513684</v>
+        <v>173.3488267513689</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093277</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641523</v>
+        <v>303.515541064153</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254628</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186644</v>
+        <v>262.5721089186651</v>
       </c>
       <c r="P10" t="n">
-        <v>200.917535035766</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228541</v>
+        <v>54.82702814228578</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35498,13 +35498,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>97.00034207341486</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,7 +35741,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M18" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>455.0369220524544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
